--- a/src/analysis_examples/circadb/results_jtk/cosinor_10428912_fam84b_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10428912_fam84b_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.20879554864495192, 0.32041088778918375]</t>
+          <t>[0.20936439607077711, 0.31984204036335856]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.47785192364347e-09</v>
+        <v>2.072003235653597e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.47785192364347e-09</v>
+        <v>2.072003235653597e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8931054190385401</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1069475616252333, -0.6792632764518469]</t>
+          <t>[-1.0943686120613103, -0.69184222601577]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.150886824203724e-08</v>
+        <v>7.755941666687249e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>2.150886824203724e-08</v>
+        <v>7.755941666687249e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.4613055388657662</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4328307320843066, 0.4897803456472258]</t>
+          <t>[0.43279770059919404, 0.48981337713233836]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.623203203203328</v>
       </c>
       <c r="X2" t="n">
-        <v>2.755675675675769</v>
+        <v>2.806706706706802</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.490730730730887</v>
+        <v>4.439699699699855</v>
       </c>
     </row>
   </sheetData>
